--- a/data/depot/Spending Drivers - Revenue.xlsx
+++ b/data/depot/Spending Drivers - Revenue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10035" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="159">
   <si>
     <t>state</t>
   </si>
@@ -373,19 +373,10 @@
     <t>(R37) Total General Charges</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
     <t>Total Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selective and General Sales </t>
   </si>
   <si>
     <t>(R01) Total Revenue per capita</t>
@@ -1181,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,40 +1234,40 @@
         <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>126</v>
-      </c>
-      <c r="V1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -5136,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="F2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,7 +5140,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5157,20 +5148,18 @@
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -5180,15 +5169,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>199441136</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>634.93622171383049</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,15 +5183,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2075718</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>430.87179947042898</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,11 +5197,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3974503</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>5436.4742073723701</v>
       </c>
     </row>
@@ -5234,11 +5211,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2928957</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>446.74368036782079</v>
       </c>
     </row>
@@ -5250,11 +5225,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1391814</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>471.91333536771435</v>
       </c>
     </row>
@@ -5266,11 +5239,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>23222260</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>610.10414898754107</v>
       </c>
     </row>
@@ -5282,11 +5253,9 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3660391</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>705.04548694851735</v>
       </c>
     </row>
@@ -5298,11 +5267,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1816414</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>505.35088007273612</v>
       </c>
     </row>
@@ -5314,11 +5281,9 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1081833</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1179.9055711700864</v>
       </c>
     </row>
@@ -5330,11 +5295,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1270313</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>2000.366906021668</v>
       </c>
     </row>
@@ -5346,11 +5309,9 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>12527880</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>647.25981163670417</v>
       </c>
     </row>
@@ -5362,11 +5323,9 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>4010372</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>404.31212823873375</v>
       </c>
     </row>
@@ -5378,11 +5337,9 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>609568</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>437.66720324878696</v>
       </c>
     </row>
@@ -5394,11 +5351,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>743711</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>466.10407435494079</v>
       </c>
     </row>
@@ -5410,11 +5365,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>7271979</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>564.86817413059418</v>
       </c>
     </row>
@@ -5426,11 +5379,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3204107</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>490.10207365602713</v>
       </c>
     </row>
@@ -5442,11 +5393,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1818367</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>591.15911096951004</v>
       </c>
     </row>
@@ -5458,11 +5407,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1958184</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>678.51942815681127</v>
       </c>
     </row>
@@ -5474,11 +5421,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2182838</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>497.97089745212975</v>
       </c>
     </row>
@@ -5490,11 +5435,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3631008</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>788.53634425714006</v>
       </c>
     </row>
@@ -5506,11 +5449,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>700520</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>527.2649541770536</v>
       </c>
     </row>
@@ -5522,11 +5463,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3290261</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>558.44570242229099</v>
       </c>
     </row>
@@ -5538,11 +5477,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5217115</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>783.84150193762491</v>
       </c>
     </row>
@@ -5554,11 +5491,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5605380</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>567.07174392634499</v>
       </c>
     </row>
@@ -5570,11 +5505,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3602605</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>669.5526440750732</v>
       </c>
     </row>
@@ -5586,11 +5519,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1048186</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>351.01738466788362</v>
       </c>
     </row>
@@ -5602,11 +5533,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3572415</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>592.90429774146628</v>
       </c>
     </row>
@@ -5618,11 +5547,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>701360</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>697.75747814036129</v>
       </c>
     </row>
@@ -5634,11 +5561,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1029129</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>554.64091098455549</v>
       </c>
     </row>
@@ -5650,11 +5575,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1230722</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>446.68332580224262</v>
       </c>
     </row>
@@ -5666,11 +5589,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1012847</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>766.55513484099333</v>
       </c>
     </row>
@@ -5682,11 +5603,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5725640</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>645.06985128436236</v>
       </c>
     </row>
@@ -5698,11 +5617,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2601547</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1247.9873778778986</v>
       </c>
     </row>
@@ -5714,11 +5631,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>20087760</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1024.5124990182148</v>
       </c>
     </row>
@@ -5730,11 +5645,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>4354107</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>446.6584073479965</v>
       </c>
     </row>
@@ -5746,11 +5659,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>708127</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1009.1519940715827</v>
       </c>
     </row>
@@ -5762,11 +5673,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>6867613</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>594.55214792335244</v>
       </c>
     </row>
@@ -5778,11 +5687,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2628520</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>688.62440952576321</v>
       </c>
     </row>
@@ -5794,11 +5701,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2509823</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>643.76158724328513</v>
       </c>
     </row>
@@ -5810,11 +5715,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>6652977</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>520.98313216329814</v>
       </c>
     </row>
@@ -5826,11 +5729,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1034865</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>983.11668694906223</v>
       </c>
     </row>
@@ -5842,11 +5743,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2876272</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>609.0414623574494</v>
       </c>
     </row>
@@ -5858,11 +5757,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>627409</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>751.83462272200018</v>
       </c>
     </row>
@@ -5874,11 +5771,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3344576</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>518.12305069249066</v>
       </c>
     </row>
@@ -5890,11 +5785,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>15547264</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>595.80794700108709</v>
       </c>
     </row>
@@ -5906,11 +5799,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1582107</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>554.11541212260886</v>
       </c>
     </row>
@@ -5922,11 +5813,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>386471</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>617.22974807470553</v>
       </c>
     </row>
@@ -5938,11 +5827,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5284706</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>644.99375230520286</v>
       </c>
     </row>
@@ -5954,11 +5841,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3778748</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>547.93647341156338</v>
       </c>
     </row>
@@ -5970,11 +5855,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1967621</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1059.9618706543563</v>
       </c>
     </row>
@@ -5986,11 +5869,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3355680</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>586.15644533133229</v>
       </c>
     </row>
@@ -6002,17 +5883,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1128546</v>
       </c>
       <c r="D54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($F$3,data!$C$1:$X$1,0))</f>
         <v>1956.248385749177</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -6059,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,35 +5952,29 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -6109,18 +5982,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A3,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3032521178</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A3,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A3,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9654.2648003493832</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6128,18 +5996,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A4,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>43752971</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A4,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A4,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9082.1206671366217</v>
       </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -6147,15 +6010,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A5,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>18204528</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A5,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A5,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>24900.835885490116</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -6163,15 +6024,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A6,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>51836542</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A6,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A6,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>7906.4484560958454</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -6179,15 +6038,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A7,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>23535995</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A7,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A7,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>7980.1969958973314</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -6195,15 +6052,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A8,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>412645564</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A8,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A8,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10841.183013957467</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -6211,15 +6066,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A9,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>47438391</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A9,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A9,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9137.3362798261605</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -6227,15 +6080,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A10,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>39951398</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A10,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A10,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>11115.017908602416</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -6243,15 +6094,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A11,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9754421</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A11,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A11,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10638.699024191797</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -6259,15 +6108,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A12,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>13125328</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A12,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A12,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>20668.505920886873</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -6275,15 +6122,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A13,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>156272239</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A13,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A13,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8073.891191421535</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -6291,15 +6136,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A14,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>72462703</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A14,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A14,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>7305.4443996370601</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -6307,15 +6150,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A15,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>13887205</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A15,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A15,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9970.9534839305379</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -6323,11 +6164,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A16,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11568037</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A16,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A16,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>7250.0059539104659</v>
       </c>
     </row>
@@ -6339,11 +6178,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A17,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>118438987</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A17,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A17,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9200.028538664259</v>
       </c>
     </row>
@@ -6355,11 +6192,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A18,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>53736947</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A18,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A18,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8219.6347240101622</v>
       </c>
     </row>
@@ -6371,11 +6206,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A19,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>31885488</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A19,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A19,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10366.112417850181</v>
       </c>
     </row>
@@ -6387,11 +6220,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A20,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>26159571</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A20,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A20,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9064.40720368847</v>
       </c>
     </row>
@@ -6403,11 +6234,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A21,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>35752401</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A21,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A21,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8156.1962967652298</v>
       </c>
     </row>
@@ -6419,11 +6248,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A22,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>41922434</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A22,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A22,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9104.1834247463048</v>
       </c>
     </row>
@@ -6435,11 +6262,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A23,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11768545</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A23,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A23,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8857.90746895962</v>
       </c>
     </row>
@@ -6451,11 +6276,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A24,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>56503180</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A24,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A24,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9590.1079106469497</v>
       </c>
     </row>
@@ -6467,11 +6290,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A25,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>73242519</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A25,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A25,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>11004.266936545395</v>
       </c>
     </row>
@@ -6483,11 +6304,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A26,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>90345717</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A26,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A26,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9139.880489006282</v>
       </c>
     </row>
@@ -6499,11 +6318,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A27,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>56263665</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A27,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A27,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10456.734964311701</v>
       </c>
     </row>
@@ -6515,11 +6332,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A28,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>26756581</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A28,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A28,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8960.2657212311424</v>
       </c>
     </row>
@@ -6531,11 +6346,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A29,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>49427658</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A29,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A29,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8203.3780665167324</v>
       </c>
     </row>
@@ -6547,11 +6360,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A30,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8940498</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A30,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A30,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8894.5753076864148</v>
       </c>
     </row>
@@ -6563,11 +6374,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A31,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>20228457</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A31,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A31,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10901.966437921688</v>
       </c>
     </row>
@@ -6579,11 +6388,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A32,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>22506800</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A32,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A32,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8168.7109494799915</v>
       </c>
     </row>
@@ -6595,11 +6402,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A33,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10892282</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A33,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A33,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8243.6287980673533</v>
       </c>
     </row>
@@ -6611,11 +6416,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A34,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>91977657</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A34,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A34,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10362.512054979721</v>
       </c>
     </row>
@@ -6627,11 +6430,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A35,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>19786177</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A35,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A35,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9491.6213900644434</v>
       </c>
     </row>
@@ -6643,11 +6444,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A36,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>294899581</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A36,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A36,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>15040.417980388776</v>
       </c>
     </row>
@@ -6659,11 +6458,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A37,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>87305049</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A37,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A37,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8956.0348746089148</v>
       </c>
     </row>
@@ -6675,11 +6472,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A38,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9821737</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A38,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A38,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>13996.960261078373</v>
       </c>
     </row>
@@ -6691,11 +6486,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A39,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>108481704</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A39,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A39,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9391.6226967922248</v>
       </c>
     </row>
@@ -6707,11 +6500,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A40,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>32423047</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A40,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A40,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8494.2483205001554</v>
       </c>
     </row>
@@ -6723,11 +6514,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A41,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>37465605</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A41,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A41,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9609.8080788286516</v>
       </c>
     </row>
@@ -6739,11 +6528,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A42,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>120156798</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A42,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A42,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9409.2712138870629</v>
       </c>
     </row>
@@ -6755,11 +6542,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A43,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11263414</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A43,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A43,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10700.188194030801</v>
       </c>
     </row>
@@ -6771,11 +6556,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A44,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>40342984</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A44,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A44,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8542.4987522818374</v>
       </c>
     </row>
@@ -6787,11 +6570,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A45,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6844783</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A45,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A45,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8202.2171253822635</v>
       </c>
     </row>
@@ -6803,11 +6584,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A46,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>54671581</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A46,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A46,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8469.4162530322556</v>
       </c>
     </row>
@@ -6819,11 +6598,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A47,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>219962666</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A47,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A47,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8429.4898733530099</v>
       </c>
     </row>
@@ -6835,11 +6612,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A48,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>24097705</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A48,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A48,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8439.9536423794671</v>
       </c>
     </row>
@@ -6851,11 +6626,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A49,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7440237</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A49,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A49,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>11882.743101361042</v>
       </c>
     </row>
@@ -6867,11 +6640,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A50,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>67401197</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A50,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A50,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8226.257234156863</v>
       </c>
     </row>
@@ -6883,11 +6654,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A51,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>69272744</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A51,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A51,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>10044.878105367714</v>
       </c>
     </row>
@@ -6899,11 +6668,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A52,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>17045578</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A52,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A52,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9182.4913147728857</v>
       </c>
     </row>
@@ -6915,11 +6682,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A53,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>53157507</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A53,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A53,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>9285.3357131178818</v>
       </c>
       <c r="E53" s="12"/>
@@ -6934,11 +6699,9 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A54,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9496375</v>
       </c>
       <c r="D54" s="10">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A54,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Revenue'!$A54,data!$A$2:$A$53,0),MATCH('Total Revenue'!$H$3,data!$C$1:$X$1,0))</f>
         <v>16461.241512724198</v>
       </c>
       <c r="E54" s="12"/>
@@ -6947,7 +6710,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -7055,8 +6818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7069,7 +6832,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -7077,22 +6840,16 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -7104,15 +6861,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1279853532</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A3,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A3,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4074.5123210448469</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -7123,15 +6875,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12883068</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A4,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A4,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2674.2316113556371</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7142,11 +6889,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2721090</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A5,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A5,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3722.0089155647597</v>
       </c>
     </row>
@@ -7158,11 +6903,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>21305958</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A6,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A6,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3249.7240794870713</v>
       </c>
     </row>
@@ -7174,11 +6917,9 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9868519</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A7,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A7,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3346.054657037263</v>
       </c>
     </row>
@@ -7190,11 +6931,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>170469440</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A8,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A8,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4478.6387121487187</v>
       </c>
     </row>
@@ -7206,11 +6945,9 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>19845887</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A9,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A9,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3822.6115909038817</v>
       </c>
     </row>
@@ -7222,11 +6959,9 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>24123697</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A10,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A10,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>6711.5379586140743</v>
       </c>
     </row>
@@ -7238,11 +6973,9 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2649884</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A11,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A11,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2890.1067859405966</v>
       </c>
     </row>
@@ -7254,11 +6987,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5375529</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A12,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A12,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>8464.8667800453513</v>
       </c>
     </row>
@@ -7270,11 +7001,9 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>60201852</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A13,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A13,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3110.3617998975678</v>
       </c>
     </row>
@@ -7286,11 +7015,9 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>31414891</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A14,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A14,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3167.1429579594719</v>
       </c>
     </row>
@@ -7302,11 +7029,9 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6927278</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A15,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A15,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4973.7558211501428</v>
       </c>
     </row>
@@ -7318,11 +7043,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4483652</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A16,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A16,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2810.0276386791093</v>
       </c>
     </row>
@@ -7334,11 +7057,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>62885022</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A17,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A17,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4884.7428681109013</v>
       </c>
     </row>
@@ -7350,11 +7071,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>23490026</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A18,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A18,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3593.0480638861286</v>
       </c>
     </row>
@@ -7366,11 +7085,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12646452</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A19,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A19,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4111.4171788415551</v>
       </c>
     </row>
@@ -7382,11 +7099,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11955823</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A20,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A20,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4142.7456179317423</v>
       </c>
     </row>
@@ -7398,11 +7113,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>14066929</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A21,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A21,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3209.0889285074709</v>
       </c>
     </row>
@@ -7414,11 +7127,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>15473558</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A22,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A22,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3360.3514115008347</v>
       </c>
     </row>
@@ -7430,11 +7141,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5805978</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A23,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A23,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4370.0233028649882</v>
       </c>
     </row>
@@ -7446,11 +7155,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>29255032</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A24,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A24,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4965.3650256397896</v>
       </c>
     </row>
@@ -7462,11 +7169,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>35255720</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A25,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A25,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>5296.9690176835975</v>
       </c>
     </row>
@@ -7478,11 +7183,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>34357922</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A26,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A26,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3475.8404865014209</v>
       </c>
     </row>
@@ -7494,11 +7197,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>26359484</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A27,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A27,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4898.9723293712705</v>
       </c>
     </row>
@@ -7510,11 +7211,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8991923</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A28,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A28,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3011.2225259591237</v>
       </c>
     </row>
@@ -7526,11 +7225,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>19173949</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A29,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A29,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3182.2497573142232</v>
       </c>
     </row>
@@ -7542,11 +7239,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2965159</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A30,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A30,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2949.9285190561131</v>
       </c>
     </row>
@@ -7558,11 +7253,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7511998</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A31,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A31,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4048.5317331784054</v>
       </c>
     </row>
@@ -7574,11 +7267,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8988868</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A32,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A32,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3262.4568777005311</v>
       </c>
     </row>
@@ -7590,11 +7281,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4904369</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A33,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A33,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3711.7839516777831</v>
       </c>
     </row>
@@ -7606,11 +7295,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>51155275</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A34,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A34,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>5763.3252591257324</v>
       </c>
     </row>
@@ -7622,11 +7309,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6545134</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A35,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A35,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3139.7643857748799</v>
       </c>
     </row>
@@ -7638,11 +7323,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>143696188</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A36,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A36,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>7328.7683976347389</v>
       </c>
     </row>
@@ -7654,11 +7337,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>32561787</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A37,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A37,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3340.2936404237876</v>
       </c>
     </row>
@@ -7670,11 +7351,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3209276</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A38,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A38,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4573.5401628889631</v>
       </c>
     </row>
@@ -7686,11 +7365,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>42500804</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A39,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A39,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3679.4362621582509</v>
       </c>
     </row>
@@ -7702,11 +7379,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11297756</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A40,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A40,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2959.8064897608342</v>
       </c>
     </row>
@@ -7718,11 +7393,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>13116801</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A41,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A41,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3364.4175829587625</v>
       </c>
     </row>
@@ -7734,11 +7407,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>51903480</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A42,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A42,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4064.4718267589233</v>
       </c>
     </row>
@@ -7750,11 +7421,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5050709</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A43,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A43,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4798.1488395334763</v>
       </c>
     </row>
@@ -7766,11 +7435,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>13061504</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A44,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A44,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2765.731995008704</v>
       </c>
     </row>
@@ -7782,11 +7449,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2599573</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A45,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A45,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3115.1114913769138</v>
       </c>
     </row>
@@ -7798,11 +7463,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>17292748</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A46,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A46,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>2678.8960240749402</v>
       </c>
     </row>
@@ -7814,11 +7477,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>85686070</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A47,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A47,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3283.6929670256732</v>
       </c>
     </row>
@@ -7830,11 +7491,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9064657</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A48,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A48,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3174.7954779955408</v>
       </c>
     </row>
@@ -7846,11 +7505,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3056123</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A49,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A49,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4880.9096397279836</v>
       </c>
     </row>
@@ -7862,11 +7519,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>30809445</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A50,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A50,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3760.2658571717652</v>
       </c>
     </row>
@@ -7878,11 +7533,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>27156543</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A51,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A51,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3937.8281911017825</v>
       </c>
     </row>
@@ -7894,11 +7547,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6067854</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A52,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A52,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>3268.7666357990274</v>
       </c>
     </row>
@@ -7910,11 +7561,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>25183733</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A53,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A53,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4398.9913863817073</v>
       </c>
     </row>
@@ -7926,17 +7575,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2479115</v>
       </c>
       <c r="D54" s="10">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A54,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Total Tax'!$A54,data!$A$2:$A$53,0),MATCH('Total Tax'!$H$3,data!$C$1:$X$1,0))</f>
         <v>4297.3567021960744</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -7983,10 +7630,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7996,32 +7643,29 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -8029,18 +7673,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>447120120</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A3,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A3,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1423.4413488551052</v>
       </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -8048,18 +7687,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2554034</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A4,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A4,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>530.1593113749833</v>
       </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -8067,15 +7701,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1522748</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A5,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A5,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2082.8718021669283</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -8083,15 +7715,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6846633</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A6,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A6,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1044.2932499684271</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -8099,15 +7729,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1949974</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A7,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A7,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>661.16502220865971</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -8115,15 +7743,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>51564418</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A8,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A8,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1354.7202280022636</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -8131,15 +7757,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6921093</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A9,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A9,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1333.1049563833412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -8147,15 +7771,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>9429054</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A10,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A10,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2623.2900303308347</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -8163,15 +7785,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>695693</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A11,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A11,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>758.76040620320407</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -8179,15 +7799,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1877748</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A12,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A12,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2956.8972033257746</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -8195,15 +7813,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>24626710</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A13,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A13,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1272.3525190081434</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -8211,15 +7827,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>10363947</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A14,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A14,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1044.8580502066741</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -8227,15 +7841,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1310590</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A15,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A15,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>940.99798530406395</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -8243,11 +7855,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1393289</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A16,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A16,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>873.2124167235944</v>
       </c>
     </row>
@@ -8259,11 +7869,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>25541837</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A17,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A17,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1984.0226202703902</v>
       </c>
     </row>
@@ -8275,11 +7883,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6499971</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A18,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A18,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>994.23935149607689</v>
       </c>
     </row>
@@ -8291,11 +7897,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>4537262</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A19,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A19,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1475.0838362969309</v>
       </c>
     </row>
@@ -8307,11 +7911,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3925808</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A20,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A20,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1360.3098581202967</v>
       </c>
     </row>
@@ -8323,11 +7925,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3130254</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A21,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A21,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>714.10493753229468</v>
       </c>
     </row>
@@ -8339,11 +7939,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3637788</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A22,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A22,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>790.00873881371035</v>
       </c>
     </row>
@@ -8355,11 +7953,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2376601</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A23,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A23,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1788.8117646350422</v>
       </c>
     </row>
@@ -8371,11 +7967,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>8966328</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A24,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A24,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1521.8267906736442</v>
       </c>
     </row>
@@ -8387,11 +7981,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>13680192</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A25,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A25,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2055.3701124232607</v>
       </c>
     </row>
@@ -8403,11 +7995,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>13278081</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A26,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A26,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1343.2852988852258</v>
       </c>
     </row>
@@ -8419,11 +8009,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>7861537</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A27,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A27,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1461.0852105196154</v>
       </c>
     </row>
@@ -8435,11 +8023,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2593099</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A28,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A28,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>868.37911321550212</v>
       </c>
     </row>
@@ -8451,11 +8037,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5755879</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A29,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A29,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>955.28806042406984</v>
       </c>
     </row>
@@ -8467,11 +8051,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1379420</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A30,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A30,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1372.3346362729228</v>
       </c>
     </row>
@@ -8483,11 +8065,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2954130</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A31,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A31,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1592.104929864774</v>
       </c>
     </row>
@@ -8499,11 +8079,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2815935</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A32,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A32,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1022.0270792615539</v>
       </c>
     </row>
@@ -8515,11 +8093,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3426466</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A33,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A33,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2593.2595018379666</v>
       </c>
     </row>
@@ -8531,11 +8107,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>25927328</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A34,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A34,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2921.0599369085176</v>
       </c>
     </row>
@@ -8547,11 +8121,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1424963</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A35,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A35,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>683.56859896939159</v>
       </c>
     </row>
@@ -8563,11 +8135,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>47576758</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A36,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A36,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2426.5016723499702</v>
       </c>
     </row>
@@ -8579,11 +8149,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>8892757</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A37,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A37,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>912.24783372405579</v>
       </c>
     </row>
@@ -8595,11 +8163,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>786726</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A38,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A38,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1121.1634518779258</v>
       </c>
     </row>
@@ -8611,11 +8177,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>13561142</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A39,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A39,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1174.0332637254878</v>
       </c>
     </row>
@@ -8627,11 +8191,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2292674</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A40,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A40,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>600.63886882544909</v>
       </c>
     </row>
@@ -8643,11 +8205,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5034662</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A41,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A41,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1291.3747305501035</v>
       </c>
     </row>
@@ -8659,11 +8219,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>17068705</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A42,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A42,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1336.6207928978783</v>
       </c>
     </row>
@@ -8675,11 +8233,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2346581</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A43,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A43,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2229.2404694115826</v>
       </c>
     </row>
@@ -8691,11 +8247,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>4881968</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A44,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A44,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1033.7412212413403</v>
       </c>
     </row>
@@ -8707,11 +8261,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1008006</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A45,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A45,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1207.9103275718271</v>
       </c>
     </row>
@@ -8723,11 +8275,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5157000</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A46,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A46,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>798.89366317918166</v>
       </c>
     </row>
@@ -8739,11 +8289,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>40316516</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A47,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A47,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1545.0242967634999</v>
       </c>
     </row>
@@ -8755,11 +8303,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2678532</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A48,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A48,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>938.12609580995195</v>
       </c>
     </row>
@@ -8771,11 +8317,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1374900</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A49,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A49,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2195.8418112301124</v>
       </c>
     </row>
@@ -8787,11 +8331,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>11343602</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A50,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A50,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1384.4767180306349</v>
       </c>
     </row>
@@ -8803,11 +8345,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>9224087</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A51,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A51,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1337.5365865152817</v>
       </c>
     </row>
@@ -8819,11 +8359,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1435307</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A52,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A52,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>773.20311822413566</v>
       </c>
     </row>
@@ -8835,11 +8373,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>10050992</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A53,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A53,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>1755.6661370493186</v>
       </c>
     </row>
@@ -8851,17 +8387,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1320395</v>
       </c>
       <c r="D54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Property!$A54,data!$A$2:$A$53,0),MATCH(Property!$G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Property!$A54,data!$A$2:$A$53,0),MATCH(Property!$G$3,data!$C$1:$X$1,0))</f>
         <v>2288.8039896479936</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -8908,10 +8442,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8921,32 +8455,29 @@
     <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -8954,18 +8485,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>307255616</v>
       </c>
       <c r="D3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A3,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A3,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>978.17192499041698</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -8973,18 +8499,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3118392</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A4,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A4,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>647.30718358379602</v>
       </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -8992,15 +8513,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A5,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A5,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -9008,15 +8527,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3093904</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A6,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A6,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>471.90247574980521</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -9024,15 +8541,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2401902</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A7,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A7,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>814.39731461702775</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -9040,15 +8555,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>55024435</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A8,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A8,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1445.6231257937545</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -9056,15 +8569,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>4875627</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A9,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A9,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>939.1179282197827</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -9072,15 +8583,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>7371189</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A10,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A10,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>2050.7642246384753</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -9088,15 +8597,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1181829</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A11,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A11,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1288.9666161693829</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -9104,15 +8611,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1490694</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A12,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A12,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>2347.4017384731669</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -9120,15 +8625,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A13,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A13,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -9136,15 +8639,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>8142371</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A14,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A14,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>820.88627885875587</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -9152,15 +8653,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1540746</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A15,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A15,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1106.2490037809653</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -9168,11 +8667,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1213335</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A16,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A16,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>760.43031104481724</v>
       </c>
     </row>
@@ -9184,11 +8681,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>15512310</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A17,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A17,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1204.9553809558247</v>
       </c>
     </row>
@@ -9200,11 +8695,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>6097513</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A18,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A18,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>932.67914131599946</v>
       </c>
     </row>
@@ -9216,11 +8709,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3126638</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A19,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A19,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1016.4837683501114</v>
       </c>
     </row>
@@ -9232,11 +8723,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2893587</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A20,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A20,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1002.6407102509177</v>
       </c>
     </row>
@@ -9248,11 +8737,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>4637599</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A21,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A21,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1057.9755969307387</v>
       </c>
     </row>
@@ -9264,11 +8751,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2474606</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A22,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A22,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>537.40359941833901</v>
       </c>
     </row>
@@ -9280,11 +8765,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1441926</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A23,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A23,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1085.3038404566639</v>
       </c>
     </row>
@@ -9296,11 +8779,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>11477575</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A24,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A24,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1948.052884856103</v>
       </c>
     </row>
@@ -9312,11 +8793,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>11954838</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A25,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A25,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1796.1456041013073</v>
       </c>
     </row>
@@ -9328,11 +8807,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>7346645</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A26,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A26,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>743.22789751234757</v>
       </c>
     </row>
@@ -9344,11 +8821,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>7988084</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A27,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A27,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1484.6042692145786</v>
       </c>
     </row>
@@ -9360,11 +8835,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1501267</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A28,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A28,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>502.74552038302329</v>
       </c>
     </row>
@@ -9376,11 +8849,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5452827</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A29,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A29,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>904.99131907706874</v>
       </c>
     </row>
@@ -9392,11 +8863,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>900180</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A30,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A30,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>895.55624311678798</v>
       </c>
     </row>
@@ -9408,11 +8877,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1838344</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A31,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A31,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>990.76091613684173</v>
       </c>
     </row>
@@ -9424,11 +8891,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A32,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A32,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -9440,11 +8905,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>81557</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A33,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A33,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>61.724956614599137</v>
       </c>
     </row>
@@ -9456,11 +8919,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>11128418</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A34,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A34,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1253.7649842271294</v>
       </c>
     </row>
@@ -9472,11 +8933,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1150468</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A35,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A35,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>551.89067991177183</v>
       </c>
     </row>
@@ -9488,11 +8947,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>47492336</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A36,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A36,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>2422.1959959484147</v>
       </c>
     </row>
@@ -9504,11 +8961,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>10383796</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A37,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A37,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1065.2034466737948</v>
       </c>
     </row>
@@ -9520,11 +8975,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>432527</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A38,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A38,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>616.39435375264532</v>
       </c>
     </row>
@@ -9536,11 +8989,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>13428718</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A39,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A39,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1162.5688766616561</v>
       </c>
     </row>
@@ -9552,11 +9003,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2774376</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A40,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A40,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>726.83602742320727</v>
       </c>
     </row>
@@ -9568,11 +9017,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>5826002</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A41,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A41,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1494.3509143085205</v>
       </c>
     </row>
@@ -9584,11 +9031,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>14312266</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A42,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A42,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1120.7688180846376</v>
       </c>
     </row>
@@ -9600,11 +9045,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1068466</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A43,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A43,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1015.0374725570164</v>
       </c>
     </row>
@@ -9616,11 +9059,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>3096834</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A44,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A44,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>655.74476545968855</v>
       </c>
     </row>
@@ -9632,11 +9073,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A45,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A45,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -9648,11 +9087,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>182251</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A46,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A46,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>28.233307932532291</v>
       </c>
     </row>
@@ -9664,11 +9101,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A47,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A47,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -9680,11 +9115,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>2466495</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A48,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A48,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>863.86249060484158</v>
       </c>
     </row>
@@ -9696,11 +9129,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>598450</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A49,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A49,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>955.77971629257445</v>
       </c>
     </row>
@@ -9712,11 +9143,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>10216148</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A50,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A50,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1246.8719419065685</v>
       </c>
     </row>
@@ -9728,11 +9157,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A51,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A51,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -9744,11 +9171,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>1755746</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A52,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A52,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>945.82433027188847</v>
       </c>
     </row>
@@ -9760,11 +9185,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>6762399</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A53,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A53,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>1181.228174245505</v>
       </c>
     </row>
@@ -9776,17 +9199,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($F$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A54,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Individual Income'!$A54,data!$A$2:$A$53,0),MATCH('Individual Income'!$F$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -9833,10 +9254,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9846,35 +9267,29 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -9882,18 +9297,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>48933513</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A3,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A3,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>155.78360855006665</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -9901,18 +9311,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>413253</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A4,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A4,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>85.781914376882213</v>
       </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -9920,15 +9325,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>663144</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A5,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A5,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>907.07322444435022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -9936,15 +9339,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>647809</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A6,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A6,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>98.808066091580599</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -9952,15 +9353,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>404083</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A7,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A7,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>137.0097989353406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -9968,15 +9367,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7949000</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A8,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A8,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>208.83918620762856</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -9984,15 +9381,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>492224</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A9,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A9,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>94.809628197574241</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -10000,15 +9395,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>628882</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A10,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A10,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>174.96345665795488</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -10016,15 +9409,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>267418</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A11,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A11,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>291.66053173748827</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -10032,15 +9423,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>465896</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A12,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A12,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>733.64827412446459</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -10048,15 +9437,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2003490</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A13,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A13,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>103.51141294584721</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -10064,15 +9451,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>590676</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A14,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A14,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>59.549954632523438</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -10080,15 +9465,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>80256</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A15,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A15,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>57.623462950703853</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -10096,11 +9479,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>188589</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A16,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A16,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>118.19389692840893</v>
       </c>
     </row>
@@ -10112,11 +9493,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3494539</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A17,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A17,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>271.44658480974056</v>
       </c>
     </row>
@@ -10128,11 +9507,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>794508</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A18,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A18,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>121.52840661572876</v>
       </c>
     </row>
@@ -10144,11 +9521,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>425776</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A19,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A19,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>138.4216506525658</v>
       </c>
     </row>
@@ -10160,11 +9535,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>317578</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A20,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A20,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>110.04218344914666</v>
       </c>
     </row>
@@ -10176,11 +9549,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>689526</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A21,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A21,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>157.30158675842057</v>
       </c>
     </row>
@@ -10192,11 +9563,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>290389</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A22,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A22,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>63.063006325650242</v>
       </c>
     </row>
@@ -10208,11 +9577,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>232118</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A23,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A23,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>174.70976793477607</v>
       </c>
     </row>
@@ -10224,11 +9591,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>880356</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A24,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A24,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>149.42006874277706</v>
       </c>
     </row>
@@ -10240,11 +9605,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2001780</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A25,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A25,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>300.75592386763543</v>
       </c>
     </row>
@@ -10256,11 +9619,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>804037</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A26,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A26,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>81.340901735708655</v>
       </c>
     </row>
@@ -10272,11 +9633,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1066022</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A27,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A27,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>198.12270530413346</v>
       </c>
     </row>
@@ -10288,11 +9647,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>395679</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A28,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A28,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>132.50530702375679</v>
       </c>
     </row>
@@ -10304,11 +9661,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>377916</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A29,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A29,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>62.721722024250816</v>
       </c>
     </row>
@@ -10320,11 +9675,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>132361</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A30,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A30,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>131.68113032413649</v>
       </c>
     </row>
@@ -10336,11 +9689,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>234296</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A31,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A31,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>126.27197064705923</v>
       </c>
     </row>
@@ -10352,11 +9703,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A32,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A32,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -10368,11 +9717,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>521309</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A33,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A33,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>394.54339183393284</v>
       </c>
     </row>
@@ -10384,11 +9731,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1929133</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A34,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A34,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>217.34260928346103</v>
       </c>
     </row>
@@ -10400,11 +9745,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>281047</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A35,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A35,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>134.82097713031891</v>
       </c>
     </row>
@@ -10416,11 +9759,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10523402</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A36,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A36,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>536.71274851916189</v>
       </c>
     </row>
@@ -10432,11 +9773,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1220072</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A37,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A37,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>125.15893990889172</v>
       </c>
     </row>
@@ -10448,11 +9787,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>215622</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A38,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A38,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>307.28297503936841</v>
       </c>
     </row>
@@ -10464,11 +9801,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>351313</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A39,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A39,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>30.414337375067106</v>
       </c>
     </row>
@@ -10480,11 +9815,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>446009</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A40,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A40,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>116.84624209371665</v>
       </c>
     </row>
@@ -10496,11 +9829,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>485376</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A41,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A41,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>124.49739450542799</v>
       </c>
     </row>
@@ -10512,11 +9843,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2143708</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A42,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A42,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>167.87006903578947</v>
       </c>
     </row>
@@ -10528,11 +9857,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>136362</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A43,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A43,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>129.5432328523508</v>
       </c>
     </row>
@@ -10544,11 +9871,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>252904</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A44,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A44,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>53.551618899759262</v>
       </c>
     </row>
@@ -10560,11 +9885,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>59837</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A45,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A45,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>71.703670683423923</v>
       </c>
     </row>
@@ -10576,11 +9899,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1115383</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A46,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A46,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>172.7889103583062</v>
       </c>
     </row>
@@ -10592,11 +9913,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A47,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A47,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -10608,11 +9927,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>258578</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A48,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A48,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>90.56407375470809</v>
       </c>
     </row>
@@ -10624,11 +9941,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>96579</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A49,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A49,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>154.24554970310061</v>
       </c>
     </row>
@@ -10640,11 +9955,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>838790</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A50,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A50,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>102.37358700674761</v>
       </c>
     </row>
@@ -10656,11 +9969,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A51,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A51,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
@@ -10672,11 +9983,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>192385</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A52,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A52,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>103.63823342291951</v>
       </c>
     </row>
@@ -10688,11 +9997,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>934103</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A53,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A53,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>163.16528812441396</v>
       </c>
     </row>
@@ -10704,17 +10011,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>0</v>
       </c>
       <c r="D54" s="10">
-        <f>INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A54,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH('Corporate Income'!$A54,data!$A$2:$A$53,0),MATCH('Corporate Income'!$H$3,data!$C$1:$X$1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -10761,10 +10066,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10774,38 +10079,30 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -10813,18 +10110,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>476544283</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A3,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A3,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1517.1154386492581</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -10832,18 +10124,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6797389</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A4,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A4,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1410.9832020199756</v>
       </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -10851,15 +10138,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>535198</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A5,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A5,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>732.06388895348118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -10867,15 +10152,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10717612</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A6,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A6,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1634.7202876772587</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -10883,15 +10166,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5112560</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A7,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A7,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1733.482521276235</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -10899,15 +10180,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>55931587</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A8,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A8,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1469.4561721450718</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -10915,15 +10194,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7556943</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A9,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A9,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1455.5790781031833</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -10931,15 +10208,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6694572</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A10,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A10,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1862.5202469868088</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -10947,15 +10222,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>504944</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A11,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A11,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>550.71923183052104</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -10963,15 +10236,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1541191</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A12,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A12,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2426.9195641219449</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -10979,15 +10250,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>33571652</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A13,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A13,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1734.4978679435774</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -10995,15 +10264,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12317897</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A14,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A14,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1241.8486742615182</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -11011,15 +10278,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3995686</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A15,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A15,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2868.88536911441</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -11027,11 +10292,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1688439</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A16,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A16,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1058.1910139822887</v>
       </c>
     </row>
@@ -11043,11 +10306,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>18336336</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A17,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A17,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1424.3182820749457</v>
       </c>
     </row>
@@ -11059,11 +10320,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10098034</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A18,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A18,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1544.6011644583236</v>
       </c>
     </row>
@@ -11075,11 +10334,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4556776</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A19,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A19,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1481.4279235419474</v>
       </c>
     </row>
@@ -11091,11 +10348,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4818850</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A20,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A20,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1669.7528661113818</v>
       </c>
     </row>
@@ -11107,11 +10362,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5609550</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A21,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A21,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1279.7068072860168</v>
       </c>
     </row>
@@ -11123,11 +10376,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9070775</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A22,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A22,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1969.8760669431351</v>
       </c>
     </row>
@@ -11139,11 +10390,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1755333</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A23,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A23,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1321.1979298385056</v>
       </c>
     </row>
@@ -11155,11 +10404,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7930773</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A24,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A24,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1346.0652813672652</v>
       </c>
     </row>
@@ -11171,11 +10418,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7618910</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A25,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A25,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1144.6973772913937</v>
       </c>
     </row>
@@ -11187,11 +10432,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12929159</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A26,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A26,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1307.9863883681389</v>
       </c>
     </row>
@@ -11203,11 +10446,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9443841</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A27,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A27,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1755.1601443329434</v>
       </c>
     </row>
@@ -11219,11 +10460,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4501878</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A28,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A28,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1507.5925853368415</v>
       </c>
     </row>
@@ -11235,11 +10474,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7587327</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A29,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A29,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1259.2486557888337</v>
       </c>
     </row>
@@ -11251,11 +10488,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>553198</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A30,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A30,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>550.35650934226589</v>
       </c>
     </row>
@@ -11267,11 +10502,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2485228</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A31,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A31,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1339.3939165297304</v>
       </c>
     </row>
@@ -11283,11 +10516,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6172933</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A32,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A32,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2240.4297984389773</v>
       </c>
     </row>
@@ -11299,11 +10530,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>875037</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A33,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A33,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>662.25610139128446</v>
       </c>
     </row>
@@ -11315,11 +10544,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12170396</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A34,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A34,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1371.1577287066245</v>
       </c>
     </row>
@@ -11331,11 +10558,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3688656</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A35,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A35,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1769.4841297633975</v>
       </c>
     </row>
@@ -11347,11 +10572,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>38103692</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A36,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A36,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1943.3579808171921</v>
       </c>
     </row>
@@ -11363,11 +10586,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12065162</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A37,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A37,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1237.6834201170454</v>
       </c>
     </row>
@@ -11379,11 +10600,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1774401</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A38,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A38,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2528.6993822190238</v>
       </c>
     </row>
@@ -11395,11 +10614,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>15159631</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A39,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A39,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1312.4197843960399</v>
       </c>
     </row>
@@ -11411,11 +10628,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5784697</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A40,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A40,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1515.4853514184613</v>
       </c>
     </row>
@@ -11427,11 +10642,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1770761</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A41,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A41,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>454.19454359471041</v>
       </c>
     </row>
@@ -11443,11 +10656,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>18378801</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A42,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A42,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1439.2121467406178</v>
       </c>
     </row>
@@ -11459,11 +10670,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1499300</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A43,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A43,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1424.3276647125267</v>
       </c>
     </row>
@@ -11475,11 +10684,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4829798</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A44,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A44,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1022.6943894079157</v>
       </c>
     </row>
@@ -11491,11 +10698,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1531730</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A45,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A45,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1835.4974931216627</v>
       </c>
     </row>
@@ -11507,11 +10712,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10838114</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A46,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A46,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1678.98014260492</v>
       </c>
     </row>
@@ -11523,11 +10726,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>45369554</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A47,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A47,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1738.6686702621732</v>
       </c>
     </row>
@@ -11539,11 +10740,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3661052</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A48,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A48,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1282.2428178260391</v>
       </c>
     </row>
@@ -11555,11 +10754,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>986194</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A49,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A49,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1575.042562502196</v>
       </c>
     </row>
@@ -11571,11 +10768,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8410905</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A50,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A50,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1026.5436102278145</v>
       </c>
     </row>
@@ -11587,11 +10782,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>17932456</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A51,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A51,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2600.2916045865009</v>
       </c>
     </row>
@@ -11603,11 +10796,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2684416</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A52,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A52,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1446.1009538800838</v>
       </c>
     </row>
@@ -11619,11 +10810,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7436239</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A53,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A53,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>1298.9317869624699</v>
       </c>
     </row>
@@ -11635,17 +10824,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1158720</v>
       </c>
       <c r="D54" s="10">
-        <f>INDEX(data!$C$2:$X$53,MATCH(Sales!$A54,data!$A$2:$A$53,0),MATCH(Sales!$H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH(Sales!$A54,data!$A$2:$A$53,0),MATCH(Sales!$H$3,data!$C$1:$X$1,0))</f>
         <v>2008.5527125480808</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -11692,10 +10879,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="G2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11704,35 +10891,29 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -11740,18 +10921,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>585128368</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1862.8012387349206</v>
       </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -11759,18 +10935,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9183305</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1906.2450440935559</v>
       </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -11778,15 +10949,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3161800</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>4324.8285757665699</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -11794,15 +10963,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11352985</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1731.6315337031797</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -11810,15 +10977,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6269469</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2125.7481436273015</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -11826,15 +10991,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>65659503</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1725.0317239045598</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -11842,15 +11005,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7647636</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1473.0478923221622</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -11858,15 +11019,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6397879</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1779.9762516964067</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -11874,15 +11033,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1890225</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2061.581601101997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -11890,15 +11047,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3474236</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>5470.8931720836481</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -11906,15 +11061,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>27260609</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1408.4343597194293</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -11922,15 +11075,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>15213467</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1533.7702389353765</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -11938,15 +11089,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2651763</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1903.9544331208544</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -11954,11 +11103,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2674278</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1676.0433444681905</v>
       </c>
     </row>
@@ -11970,11 +11117,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>19072621</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1481.510961480338</v>
       </c>
     </row>
@@ -11986,11 +11131,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11115800</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1700.2792448397217</v>
       </c>
     </row>
@@ -12002,11 +11145,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>6741283</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2191.6207592163032</v>
       </c>
     </row>
@@ -12018,11 +11159,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4331875</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1501.0138719582974</v>
       </c>
     </row>
@@ -12034,11 +11173,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8606289</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1963.3529639223764</v>
       </c>
     </row>
@@ -12050,11 +11187,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12120237</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2632.119614032832</v>
       </c>
     </row>
@@ -12066,11 +11201,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3054548</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2299.0865517781231</v>
       </c>
     </row>
@@ -12082,11 +11215,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11497953</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1951.511579021691</v>
       </c>
     </row>
@@ -12098,11 +11229,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>14539789</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2184.5196143110047</v>
       </c>
     </row>
@@ -12114,11 +11243,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>19833179</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2006.4358532576493</v>
       </c>
     </row>
@@ -12130,11 +11257,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10626093</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1974.884469526253</v>
       </c>
     </row>
@@ -12146,11 +11271,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8265332</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2767.9011378245541</v>
       </c>
     </row>
@@ -12162,11 +11285,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11393251</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1890.9078265395424</v>
       </c>
     </row>
@@ -12178,11 +11299,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2470255</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2457.5665837282113</v>
       </c>
     </row>
@@ -12194,11 +11313,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3538034</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1906.7953588464916</v>
       </c>
     </row>
@@ -12210,11 +11327,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>3406878</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1236.5063723915659</v>
       </c>
     </row>
@@ -12226,11 +11341,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1847680</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1398.3835579737183</v>
       </c>
     </row>
@@ -12242,11 +11355,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>14446339</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1627.5731185218567</v>
       </c>
     </row>
@@ -12258,11 +11369,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5608149</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2690.2835756027312</v>
       </c>
     </row>
@@ -12274,11 +11383,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>55300699</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2820.4367898632845</v>
       </c>
     </row>
@@ -12290,11 +11397,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>17596261</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1805.081481355342</v>
       </c>
     </row>
@@ -12306,11 +11411,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1978441</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2819.4768456830147</v>
       </c>
     </row>
@@ -12322,11 +11425,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>23227443</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2010.8771601453427</v>
       </c>
     </row>
@@ -12338,11 +11439,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7832540</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2051.9829533680249</v>
       </c>
     </row>
@@ -12354,11 +11453,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>8916374</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2287.0214667308251</v>
       </c>
     </row>
@@ -12370,11 +11467,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>23463388</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1837.37736826728</v>
       </c>
     </row>
@@ -12386,11 +11481,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2498189</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2373.2673276732626</v>
       </c>
     </row>
@@ -12402,11 +11495,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>7333391</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1552.8222569628178</v>
       </c>
     </row>
@@ -12418,11 +11509,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1817463</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2177.8960915705616</v>
       </c>
     </row>
@@ -12434,11 +11523,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>12011295</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1860.7227966018593</v>
       </c>
     </row>
@@ -12450,11 +11537,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>41672151</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1596.9754378924354</v>
       </c>
     </row>
@@ -12466,11 +11551,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>5154881</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1805.4398405152153</v>
       </c>
     </row>
@@ -12482,11 +11565,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>1993221</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>3183.3573429499565</v>
       </c>
     </row>
@@ -12498,11 +11579,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>10997861</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1342.2793309071594</v>
       </c>
     </row>
@@ -12514,11 +11593,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>11606030</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1682.9296763131088</v>
       </c>
     </row>
@@ -12530,11 +11607,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>4517590</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>2433.6359223902436</v>
       </c>
     </row>
@@ -12546,11 +11621,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>9520107</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>1662.9333185208166</v>
       </c>
     </row>
@@ -12562,17 +11635,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/1000</f>
         <v>2338303</v>
       </c>
       <c r="D54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($H$3,data!$C$1:$X$1,0))</f>
         <v>4053.2698438011903</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -12619,10 +11690,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12632,32 +11703,29 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -12665,18 +11733,13 @@
         <v>91</v>
       </c>
       <c r="C3" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>426419887</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A3,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1357.540562321198</v>
       </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -12684,18 +11747,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>8348369</v>
       </c>
       <c r="D4" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A4,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1732.9313392633997</v>
       </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -12703,15 +11761,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1379070</v>
       </c>
       <c r="D5" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A5,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1886.3436472839535</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -12719,15 +11775,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6980474</v>
       </c>
       <c r="D6" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A6,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1064.7075547616041</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -12735,15 +11789,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3143972</v>
       </c>
       <c r="D7" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A7,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1066.0061709558199</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -12751,15 +11803,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>60710541</v>
       </c>
       <c r="D8" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A8,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1595.0106902333462</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -12767,15 +11817,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>8332969</v>
       </c>
       <c r="D9" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A9,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1605.0531722791088</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -12783,15 +11831,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2960126</v>
       </c>
       <c r="D10" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A10,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>823.54698831113842</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -12799,15 +11845,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1437973</v>
       </c>
       <c r="D11" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A11,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1568.3311138522884</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -12815,15 +11859,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>652294</v>
       </c>
       <c r="D12" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A12,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1027.1699420508944</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -12831,15 +11873,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>29029969</v>
       </c>
       <c r="D13" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A13,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1499.8493174231683</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -12847,15 +11887,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>11659250</v>
       </c>
       <c r="D14" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A14,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1175.4461135195081</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -12863,15 +11901,13 @@
         <v>25</v>
       </c>
       <c r="C15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2228625</v>
       </c>
       <c r="D15" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A15,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1600.1431683427079</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -12879,11 +11915,9 @@
         <v>27</v>
       </c>
       <c r="C16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1880628</v>
       </c>
       <c r="D16" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A16,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1178.6411296134972</v>
       </c>
     </row>
@@ -12895,11 +11929,9 @@
         <v>29</v>
       </c>
       <c r="C17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>12126101</v>
       </c>
       <c r="D17" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A17,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>941.92358520193352</v>
       </c>
     </row>
@@ -12911,11 +11943,9 @@
         <v>31</v>
       </c>
       <c r="C18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>8952321</v>
       </c>
       <c r="D18" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A18,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1369.3522364060871</v>
       </c>
     </row>
@@ -12927,11 +11957,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5963534</v>
       </c>
       <c r="D19" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A19,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1938.7711378816523</v>
       </c>
     </row>
@@ -12943,11 +11971,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>4802253</v>
       </c>
       <c r="D20" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A20,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1664.0019321086943</v>
       </c>
     </row>
@@ -12959,11 +11985,9 @@
         <v>37</v>
       </c>
       <c r="C21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5128066</v>
       </c>
       <c r="D21" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A21,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1169.8658481361206</v>
       </c>
     </row>
@@ -12975,11 +11999,9 @@
         <v>39</v>
       </c>
       <c r="C22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6416922</v>
       </c>
       <c r="D22" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A22,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1393.5458735599634</v>
       </c>
     </row>
@@ -12991,11 +12013,9 @@
         <v>41</v>
       </c>
       <c r="C23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1301088</v>
       </c>
       <c r="D23" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A23,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>979.29838505726366</v>
       </c>
     </row>
@@ -13007,11 +12027,9 @@
         <v>43</v>
       </c>
       <c r="C24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6231977</v>
       </c>
       <c r="D24" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A24,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1057.7339527911499</v>
       </c>
     </row>
@@ -13023,11 +12041,9 @@
         <v>45</v>
       </c>
       <c r="C25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>7548392</v>
       </c>
       <c r="D25" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A25,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1134.1024536537823</v>
       </c>
     </row>
@@ -13039,11 +12055,9 @@
         <v>47</v>
       </c>
       <c r="C26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>14177845</v>
       </c>
       <c r="D26" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A26,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1434.3104819418861</v>
       </c>
     </row>
@@ -13055,11 +12069,9 @@
         <v>49</v>
       </c>
       <c r="C27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>7031732</v>
       </c>
       <c r="D27" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A27,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1306.8639923131464</v>
       </c>
     </row>
@@ -13071,11 +12083,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>5091576</v>
       </c>
       <c r="D28" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A28,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1705.0711337088687</v>
       </c>
     </row>
@@ -13087,11 +12097,9 @@
         <v>53</v>
       </c>
       <c r="C29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6908398</v>
       </c>
       <c r="D29" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A29,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1146.5685998711097</v>
       </c>
     </row>
@@ -13103,11 +12111,9 @@
         <v>55</v>
       </c>
       <c r="C30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1100888</v>
       </c>
       <c r="D30" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A30,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1095.2333104183103</v>
       </c>
     </row>
@@ -13119,11 +12125,9 @@
         <v>57</v>
       </c>
       <c r="C31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2713732</v>
       </c>
       <c r="D31" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A31,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1462.5443347218277</v>
       </c>
     </row>
@@ -13135,11 +12139,9 @@
         <v>59</v>
       </c>
       <c r="C32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>3036040</v>
       </c>
       <c r="D32" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A32,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1101.9128970381944</v>
       </c>
     </row>
@@ -13151,11 +12153,9 @@
         <v>61</v>
       </c>
       <c r="C33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1312550</v>
       </c>
       <c r="D33" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A33,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>993.37998951030693</v>
       </c>
     </row>
@@ -13167,11 +12167,9 @@
         <v>63</v>
       </c>
       <c r="C34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>10335013</v>
       </c>
       <c r="D34" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A34,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1164.3773095989184</v>
       </c>
     </row>
@@ -13183,11 +12181,9 @@
         <v>65</v>
       </c>
       <c r="C35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2294178</v>
       </c>
       <c r="D35" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A35,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1100.5394815489251</v>
       </c>
     </row>
@@ -13199,11 +12195,9 @@
         <v>67</v>
       </c>
       <c r="C36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>27428629</v>
       </c>
       <c r="D36" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A36,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1398.910243921347</v>
       </c>
     </row>
@@ -13215,11 +12209,9 @@
         <v>69</v>
       </c>
       <c r="C37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>15224265</v>
       </c>
       <c r="D37" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A37,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1561.7544442393919</v>
       </c>
     </row>
@@ -13231,11 +12223,9 @@
         <v>71</v>
       </c>
       <c r="C38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1109596</v>
       </c>
       <c r="D38" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A38,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1581.2855829729017</v>
       </c>
     </row>
@@ -13247,11 +12237,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>15530356</v>
       </c>
       <c r="D39" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A39,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1344.5146833134488</v>
       </c>
     </row>
@@ -13263,11 +12251,9 @@
         <v>75</v>
       </c>
       <c r="C40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>4847942</v>
       </c>
       <c r="D40" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A40,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1270.0725872982314</v>
       </c>
     </row>
@@ -13279,11 +12265,9 @@
         <v>77</v>
       </c>
       <c r="C41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>6470418</v>
       </c>
       <c r="D41" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A41,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1659.6415611011305</v>
       </c>
     </row>
@@ -13295,11 +12279,9 @@
         <v>79</v>
       </c>
       <c r="C42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>16342571</v>
       </c>
       <c r="D42" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A42,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1279.7584941569892</v>
       </c>
     </row>
@@ -13311,11 +12293,9 @@
         <v>81</v>
       </c>
       <c r="C43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1101914</v>
       </c>
       <c r="D43" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A43,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1046.8129089135191</v>
       </c>
     </row>
@@ -13327,11 +12307,9 @@
         <v>83</v>
       </c>
       <c r="C44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>9351006</v>
       </c>
       <c r="D44" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A44,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1980.0458262477553</v>
       </c>
     </row>
@@ -13343,11 +12321,9 @@
         <v>85</v>
       </c>
       <c r="C45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>775935</v>
       </c>
       <c r="D45" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A45,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>929.81579477150501</v>
       </c>
     </row>
@@ -13359,11 +12335,9 @@
         <v>87</v>
       </c>
       <c r="C46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>7299290</v>
       </c>
       <c r="D46" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A46,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1130.765275684927</v>
       </c>
     </row>
@@ -13375,11 +12349,9 @@
         <v>89</v>
       </c>
       <c r="C47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>29787122</v>
       </c>
       <c r="D47" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A47,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1141.5130022807173</v>
       </c>
     </row>
@@ -13391,11 +12363,9 @@
         <v>93</v>
       </c>
       <c r="C48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>4449950</v>
       </c>
       <c r="D48" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A48,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1558.5455839428073</v>
       </c>
     </row>
@@ -13407,11 +12377,9 @@
         <v>95</v>
       </c>
       <c r="C49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>735154</v>
       </c>
       <c r="D49" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A49,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1174.1085830919062</v>
       </c>
     </row>
@@ -13423,11 +12391,9 @@
         <v>97</v>
       </c>
       <c r="C50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>11985020</v>
       </c>
       <c r="D50" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A50,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1462.7612247971604</v>
       </c>
     </row>
@@ -13439,11 +12405,9 @@
         <v>99</v>
       </c>
       <c r="C51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>11712352</v>
       </c>
       <c r="D51" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A51,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1698.3468731534549</v>
       </c>
     </row>
@@ -13455,11 +12419,9 @@
         <v>101</v>
       </c>
       <c r="C52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>2287467</v>
       </c>
       <c r="D52" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A52,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1232.2636322646019</v>
       </c>
     </row>
@@ -13471,11 +12433,9 @@
         <v>103</v>
       </c>
       <c r="C53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>7287301</v>
       </c>
       <c r="D53" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A53,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>1272.9159068264742</v>
       </c>
     </row>
@@ -13487,17 +12447,15 @@
         <v>105</v>
       </c>
       <c r="C54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/1000</f>
         <v>1476733</v>
       </c>
       <c r="D54" s="9">
-        <f>INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($G$2,data!$C$1:$X$1,0))/INDEX(data!$C$2:$X$53,MATCH($A54,data!$A$2:$A$53,0),MATCH($G$3,data!$C$1:$X$1,0))</f>
         <v>2559.8039844477225</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
